--- a/biology/Médecine/Bronchiole/Bronchiole.xlsx
+++ b/biology/Médecine/Bronchiole/Bronchiole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bronchioles sont les premières branches des voies respiratoires qui ne contiennent plus de cartilage. Elles sont des prolongements des bronches et elles ont moins d'un millimètre de diamètre, elles permettent l'accès de l'air aux alvéoles.
 </t>
